--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc107_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc107_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +414,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +461,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +703,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +750,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +796,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -910,10 +934,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -957,28 +981,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1003,28 +1027,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1141,10 +1165,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1188,28 +1212,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1234,28 +1258,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1401,10 +1425,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1448,28 +1472,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1494,28 +1518,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1632,10 +1656,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1679,28 +1703,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1725,28 +1749,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1892,10 +1916,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1939,28 +1963,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1985,28 +2009,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2123,10 +2147,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2170,28 +2194,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2216,28 +2240,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2383,10 +2407,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2430,28 +2454,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2476,28 +2500,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2643,10 +2667,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2690,28 +2714,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2736,28 +2760,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2874,10 +2898,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2921,28 +2945,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2967,28 +2991,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3076,10 +3100,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3123,28 +3147,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3169,28 +3193,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3278,10 +3302,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3325,28 +3349,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3371,28 +3395,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3509,10 +3533,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3556,28 +3580,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3602,28 +3626,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3769,10 +3793,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="2" t="s">
+      <c r="J126" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3816,28 +3840,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="2">
+      <c r="C128" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3862,28 +3886,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4000,10 +4024,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4047,28 +4071,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4093,28 +4117,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4318,10 +4342,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4365,28 +4389,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4411,28 +4435,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4636,10 +4660,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4683,28 +4707,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4729,28 +4753,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4896,10 +4920,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4943,28 +4967,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4989,28 +5013,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5127,10 +5151,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5174,28 +5198,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5220,28 +5244,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5416,10 +5440,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5463,28 +5487,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5509,28 +5533,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5647,10 +5671,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5694,28 +5718,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5740,28 +5764,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5849,10 +5873,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5896,28 +5920,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5942,28 +5966,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6138,10 +6162,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6185,28 +6209,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6231,28 +6255,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6369,10 +6393,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6416,28 +6440,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6462,28 +6486,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6629,10 +6653,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6676,28 +6700,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6722,28 +6746,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6831,10 +6855,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6878,28 +6902,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6924,28 +6948,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7062,10 +7086,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7109,28 +7133,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7155,28 +7179,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7235,10 +7259,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
